--- a/Code/Results/Cases/Case_3_173/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_173/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.630425984042347</v>
+        <v>3.083188353011337</v>
       </c>
       <c r="C2">
-        <v>0.4300642362954363</v>
+        <v>0.157306099068677</v>
       </c>
       <c r="D2">
-        <v>0.1652528400507123</v>
+        <v>0.05162501809898856</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7.286045443307529</v>
+        <v>6.672031919112214</v>
       </c>
       <c r="G2">
-        <v>0.0008525939415833239</v>
+        <v>0.002680968051116933</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1250596844025864</v>
+        <v>0.1774384546004057</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.08713541722296014</v>
+        <v>0.2849453852701416</v>
       </c>
       <c r="M2">
-        <v>0.3891186339286463</v>
+        <v>0.5816497773916325</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.320227578323227</v>
+        <v>3.043885440472025</v>
       </c>
       <c r="C3">
-        <v>0.3669933877717142</v>
+        <v>0.1439960690541682</v>
       </c>
       <c r="D3">
-        <v>0.1431630002440727</v>
+        <v>0.04518012690787998</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6.620439367004252</v>
+        <v>6.499322781234298</v>
       </c>
       <c r="G3">
-        <v>0.0008641535986583796</v>
+        <v>0.002687758981656166</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1206829396779483</v>
+        <v>0.1758710626823152</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08387195821499915</v>
+        <v>0.2870734117642968</v>
       </c>
       <c r="M3">
-        <v>0.3477155258195381</v>
+        <v>0.5784692023009512</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.136372008766614</v>
+        <v>3.022285137614347</v>
       </c>
       <c r="C4">
-        <v>0.3293003284714189</v>
+        <v>0.1360033035794288</v>
       </c>
       <c r="D4">
-        <v>0.1298856153231753</v>
+        <v>0.04121507731058216</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6.222417254176719</v>
+        <v>6.394728955178095</v>
       </c>
       <c r="G4">
-        <v>0.0008714089537884541</v>
+        <v>0.002692143744943508</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1180507331986895</v>
+        <v>0.1748879421335694</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.08208508798173142</v>
+        <v>0.2885389116991703</v>
       </c>
       <c r="M4">
-        <v>0.3232954500027176</v>
+        <v>0.5769625683503392</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.06292666315926</v>
+        <v>3.014118118620502</v>
       </c>
       <c r="C5">
-        <v>0.3141607787582643</v>
+        <v>0.1327907786742628</v>
       </c>
       <c r="D5">
-        <v>0.124535114246072</v>
+        <v>0.03959703916271451</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>6.062550721038718</v>
+        <v>6.35246440323607</v>
       </c>
       <c r="G5">
-        <v>0.0008744083223289485</v>
+        <v>0.002693984865617241</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1169889143634961</v>
+        <v>0.1744819989973792</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08140825303041765</v>
+        <v>0.2891761278176475</v>
       </c>
       <c r="M5">
-        <v>0.313570348697283</v>
+        <v>0.5764606954166993</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.050815319008052</v>
+        <v>3.01280032173571</v>
       </c>
       <c r="C6">
-        <v>0.3116591351582088</v>
+        <v>0.1322600178050379</v>
       </c>
       <c r="D6">
-        <v>0.1236499786299419</v>
+        <v>0.03932822146019532</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>6.036136176696289</v>
+        <v>6.345467859932768</v>
       </c>
       <c r="G6">
-        <v>0.0008749090325312338</v>
+        <v>0.002694293867378319</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1168131712693956</v>
+        <v>0.17441426862597</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08129887766675381</v>
+        <v>0.289284355565961</v>
       </c>
       <c r="M6">
-        <v>0.3119684718281661</v>
+        <v>0.5763841265610949</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.135375747240573</v>
+        <v>3.022172423866948</v>
       </c>
       <c r="C7">
-        <v>0.3290953062009123</v>
+        <v>0.1359597985546657</v>
       </c>
       <c r="D7">
-        <v>0.1298132277609625</v>
+        <v>0.04119326534375034</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>6.220252239486911</v>
+        <v>6.394157518396725</v>
       </c>
       <c r="G7">
-        <v>0.0008714492273181991</v>
+        <v>0.002692168354804439</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1180363730846956</v>
+        <v>0.1748824890883824</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.08207575612055251</v>
+        <v>0.2885473433249359</v>
       </c>
       <c r="M7">
-        <v>0.3231634095763027</v>
+        <v>0.5769553462071713</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.521980960556903</v>
+        <v>3.069110356165652</v>
       </c>
       <c r="C8">
-        <v>0.4080782064956452</v>
+        <v>0.1526791573949993</v>
       </c>
       <c r="D8">
-        <v>0.1575694780499362</v>
+        <v>0.04940428548670184</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>7.054109005511663</v>
+        <v>6.612176876263334</v>
       </c>
       <c r="G8">
-        <v>0.0008565489515550337</v>
+        <v>0.002683265042539548</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1235372067947331</v>
+        <v>0.1769022613490883</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.08596311148347979</v>
+        <v>0.2856461882040549</v>
       </c>
       <c r="M8">
-        <v>0.3746186808902436</v>
+        <v>0.5804604166775249</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.342041454610865</v>
+        <v>3.18132002463949</v>
       </c>
       <c r="C9">
-        <v>0.5731783214696122</v>
+        <v>0.1869197245910357</v>
       </c>
       <c r="D9">
-        <v>0.2148696441222171</v>
+        <v>0.06545664199016699</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.791857632957061</v>
+        <v>7.051532763981726</v>
       </c>
       <c r="G9">
-        <v>0.0008284221595594695</v>
+        <v>0.00266750309284811</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1349185498685515</v>
+        <v>0.1807030835888526</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.09547315869024686</v>
+        <v>0.2812152419151346</v>
       </c>
       <c r="M9">
-        <v>0.4847889791047919</v>
+        <v>0.5908820392982435</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.99774560958781</v>
+        <v>3.276177529124482</v>
       </c>
       <c r="C10">
-        <v>0.7040114429424875</v>
+        <v>0.2130054979682257</v>
       </c>
       <c r="D10">
-        <v>0.2596910868698075</v>
+        <v>0.07723908065960927</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.16008027182227</v>
+        <v>7.382002736411209</v>
       </c>
       <c r="G10">
-        <v>0.0008081682467752097</v>
+        <v>0.002656944475691425</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1438984515365682</v>
+        <v>0.1834045291089446</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1038803103411681</v>
+        <v>0.2787238704349093</v>
       </c>
       <c r="M10">
-        <v>0.573525809726334</v>
+        <v>0.6007148955721036</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.311816865489845</v>
+        <v>3.3220560884821</v>
       </c>
       <c r="C11">
-        <v>0.7665126901061114</v>
+        <v>0.2250840118702513</v>
       </c>
       <c r="D11">
-        <v>0.2809368614978922</v>
+        <v>0.08260094170053378</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.81022642975279</v>
+        <v>7.534113163509176</v>
       </c>
       <c r="G11">
-        <v>0.0007989745552477212</v>
+        <v>0.002652360127845445</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1481882184064744</v>
+        <v>0.1846151373049203</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1080869169406355</v>
+        <v>0.27775580827619</v>
       </c>
       <c r="M11">
-        <v>0.6161729652747283</v>
+        <v>0.6056637952670272</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.433447123429289</v>
+        <v>3.339823477083087</v>
       </c>
       <c r="C12">
-        <v>0.7907029747311469</v>
+        <v>0.229689058208379</v>
       </c>
       <c r="D12">
-        <v>0.2891319399036547</v>
+        <v>0.08463194244488648</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.06119879012465</v>
+        <v>7.591977015302632</v>
       </c>
       <c r="G12">
-        <v>0.000795489072617605</v>
+        <v>0.002650655404259258</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1498493037686686</v>
+        <v>0.1850710451619726</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1097422745641126</v>
+        <v>0.2774129484969947</v>
       </c>
       <c r="M12">
-        <v>0.6327098092785945</v>
+        <v>0.6076064792610225</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.407124204882791</v>
+        <v>3.335979388709859</v>
       </c>
       <c r="C13">
-        <v>0.7854682537048632</v>
+        <v>0.2286958813206184</v>
       </c>
       <c r="D13">
-        <v>0.2873598467229215</v>
+        <v>0.08419449952288005</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.00692093731283</v>
+        <v>7.579503188574677</v>
       </c>
       <c r="G13">
-        <v>0.0007962400357818186</v>
+        <v>0.002651021159080447</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1494898002237939</v>
+        <v>0.1849729677490615</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1093828549435756</v>
+        <v>0.2774857349834363</v>
       </c>
       <c r="M13">
-        <v>0.6291300166932672</v>
+        <v>0.6071850310860896</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.321766651927305</v>
+        <v>3.323509910796076</v>
       </c>
       <c r="C14">
-        <v>0.7684917721770717</v>
+        <v>0.2254622429674384</v>
       </c>
       <c r="D14">
-        <v>0.2816079044562656</v>
+        <v>0.08276802001027761</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.83077334789527</v>
+        <v>7.538868345830565</v>
       </c>
       <c r="G14">
-        <v>0.0007986879269864777</v>
+        <v>0.002652219253445942</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1483240964076487</v>
+        <v>0.1846526950692251</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1082218059992357</v>
+        <v>0.277727125757643</v>
       </c>
       <c r="M14">
-        <v>0.6175253207274238</v>
+        <v>0.6058222440848766</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.269848108718406</v>
+        <v>3.315923388636634</v>
       </c>
       <c r="C15">
-        <v>0.7581642879652009</v>
+        <v>0.2234856269469958</v>
       </c>
       <c r="D15">
-        <v>0.2781050487084826</v>
+        <v>0.08189434456586753</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.72352559060539</v>
+        <v>7.514012790595132</v>
       </c>
       <c r="G15">
-        <v>0.000800186580696426</v>
+        <v>0.002652957186948066</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1476150779783225</v>
+        <v>0.1844561934129842</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1075190011692442</v>
+        <v>0.2778780729779484</v>
       </c>
       <c r="M15">
-        <v>0.6104694918704752</v>
+        <v>0.6049964435339774</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.977572885542997</v>
+        <v>3.27323430683083</v>
       </c>
       <c r="C16">
-        <v>0.6999944807506324</v>
+        <v>0.2122204629982889</v>
       </c>
       <c r="D16">
-        <v>0.2583220283027572</v>
+        <v>0.07688873539862584</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.118214096511</v>
+        <v>7.372098358107451</v>
       </c>
       <c r="G16">
-        <v>0.0008087689141727772</v>
+        <v>0.002657248459812567</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1436228111660007</v>
+        <v>0.1833250540666569</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1036136963925074</v>
+        <v>0.2787904576913647</v>
       </c>
       <c r="M16">
-        <v>0.5707894432339273</v>
+        <v>0.6004010671530153</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.802596626611148</v>
+        <v>3.247745872293024</v>
       </c>
       <c r="C17">
-        <v>0.6651347371184215</v>
+        <v>0.2053644285369387</v>
       </c>
       <c r="D17">
-        <v>0.2464226390941917</v>
+        <v>0.07381867133480569</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.754498158978151</v>
+        <v>7.285498966591831</v>
       </c>
       <c r="G17">
-        <v>0.0008140344531661839</v>
+        <v>0.002659936921924625</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1412308500876946</v>
+        <v>0.1826265275041088</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1013207032848911</v>
+        <v>0.2793924765086402</v>
       </c>
       <c r="M17">
-        <v>0.5470701181637168</v>
+        <v>0.5977039846553254</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.703411328347556</v>
+        <v>3.23334219206248</v>
       </c>
       <c r="C18">
-        <v>0.6453587735880433</v>
+        <v>0.2014409274522393</v>
       </c>
       <c r="D18">
-        <v>0.2396571824482976</v>
+        <v>0.07205301922145679</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.547854584277559</v>
+        <v>7.235856197979899</v>
       </c>
       <c r="G18">
-        <v>0.0008170654018466728</v>
+        <v>0.002661503862130727</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1398738301885167</v>
+        <v>0.1822230252090016</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.100037288749256</v>
+        <v>0.2797543006760179</v>
       </c>
       <c r="M18">
-        <v>0.5336379135964506</v>
+        <v>0.5961974732283011</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.670067194507851</v>
+        <v>3.228509364613672</v>
       </c>
       <c r="C19">
-        <v>0.6387075381247485</v>
+        <v>0.2001158958059079</v>
       </c>
       <c r="D19">
-        <v>0.2373793035883267</v>
+        <v>0.0714552195328082</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.478305784467295</v>
+        <v>7.219076457086516</v>
       </c>
       <c r="G19">
-        <v>0.0008180922239423322</v>
+        <v>0.002662037946559454</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1394173924015121</v>
+        <v>0.1820861061770422</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.09960862950968874</v>
+        <v>0.2798794816859598</v>
       </c>
       <c r="M19">
-        <v>0.5291245147271439</v>
+        <v>0.5956950789387392</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.821069553820848</v>
+        <v>3.250432589190893</v>
       </c>
       <c r="C20">
-        <v>0.6688165917084632</v>
+        <v>0.2060921996615832</v>
       </c>
       <c r="D20">
-        <v>0.2476810199979553</v>
+        <v>0.07414546541539835</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.79294650170425</v>
+        <v>7.294700292751401</v>
       </c>
       <c r="G20">
-        <v>0.0008134737308141219</v>
+        <v>0.002659648598907465</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1414834875331934</v>
+        <v>0.1827010649463716</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1015610770314552</v>
+        <v>0.2793267806058779</v>
       </c>
       <c r="M20">
-        <v>0.5495728953946752</v>
+        <v>0.5979864577325529</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.346761203779693</v>
+        <v>3.32716178480149</v>
       </c>
       <c r="C21">
-        <v>0.7734631669724763</v>
+        <v>0.2264111892304754</v>
       </c>
       <c r="D21">
-        <v>0.2832930887782794</v>
+        <v>0.08318699348946268</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.88237557221146</v>
+        <v>7.550796589748813</v>
       </c>
       <c r="G21">
-        <v>0.0007979690924848273</v>
+        <v>0.002651866497157882</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1486654332238508</v>
+        <v>0.184746834537215</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1085610744333536</v>
+        <v>0.2776555798877425</v>
       </c>
       <c r="M21">
-        <v>0.6209228631484294</v>
+        <v>0.6062206629623574</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.706317457182365</v>
+        <v>3.379607272065812</v>
       </c>
       <c r="C22">
-        <v>0.8449576911623637</v>
+        <v>0.2398728708240867</v>
       </c>
       <c r="D22">
-        <v>0.3074566003879653</v>
+        <v>0.08909967752525461</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.62269153710349</v>
+        <v>7.719706357023654</v>
       </c>
       <c r="G22">
-        <v>0.0007878082828491073</v>
+        <v>0.002646962615240382</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.153577227635143</v>
+        <v>0.1860692066460885</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1135042206579726</v>
+        <v>0.2767016193552934</v>
       </c>
       <c r="M22">
-        <v>0.6698474939735135</v>
+        <v>0.6120024032412061</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.512790005430304</v>
+        <v>3.351405139251767</v>
       </c>
       <c r="C23">
-        <v>0.806480248117424</v>
+        <v>0.2326712268520623</v>
       </c>
       <c r="D23">
-        <v>0.294468636869297</v>
+        <v>0.0859435454909061</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.22468228411134</v>
+        <v>7.629413059352885</v>
       </c>
       <c r="G23">
-        <v>0.0007932364373823657</v>
+        <v>0.002649563305372027</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1509330142980438</v>
+        <v>0.1853647371279159</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1108294475440701</v>
+        <v>0.2771981280267966</v>
       </c>
       <c r="M23">
-        <v>0.6435030847404732</v>
+        <v>0.6088798872705397</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.812713580102979</v>
+        <v>3.249217146059152</v>
       </c>
       <c r="C24">
-        <v>0.6671512054782909</v>
+        <v>0.2057631179347652</v>
       </c>
       <c r="D24">
-        <v>0.2471118722669559</v>
+        <v>0.07399772380047409</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.775556396382029</v>
+        <v>7.290539924045902</v>
       </c>
       <c r="G24">
-        <v>0.0008137272212547719</v>
+        <v>0.002659778883353676</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1413692141328546</v>
+        <v>0.1826673725264243</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1014522960316029</v>
+        <v>0.2793564327699585</v>
       </c>
       <c r="M24">
-        <v>0.548440757638275</v>
+        <v>0.5978586143793763</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.112106933757616</v>
+        <v>3.148793019482696</v>
       </c>
       <c r="C25">
-        <v>0.5271102491077215</v>
+        <v>0.1774967109637657</v>
       </c>
       <c r="D25">
-        <v>0.198969138330952</v>
+        <v>0.06111740160096701</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8.308028281802194</v>
+        <v>6.93136175288555</v>
       </c>
       <c r="G25">
-        <v>0.0008359384222875324</v>
+        <v>0.002671586753848125</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1317519369207751</v>
+        <v>0.1796913160054956</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.09267299261809114</v>
+        <v>0.2822795474686401</v>
       </c>
       <c r="M25">
-        <v>0.4537906784763308</v>
+        <v>0.5876815511680604</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_173/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_173/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.083188353011337</v>
+        <v>2.630425984042176</v>
       </c>
       <c r="C2">
-        <v>0.157306099068677</v>
+        <v>0.4300642362957205</v>
       </c>
       <c r="D2">
-        <v>0.05162501809898856</v>
+        <v>0.1652528400506554</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.672031919112214</v>
+        <v>7.286045443307586</v>
       </c>
       <c r="G2">
-        <v>0.002680968051116933</v>
+        <v>0.0008525939415660491</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1774384546004057</v>
+        <v>0.1250596844025225</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2849453852701416</v>
+        <v>0.08713541722286067</v>
       </c>
       <c r="M2">
-        <v>0.5816497773916325</v>
+        <v>0.3891186339286605</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.043885440472025</v>
+        <v>2.32022757832334</v>
       </c>
       <c r="C3">
-        <v>0.1439960690541682</v>
+        <v>0.36699338777143</v>
       </c>
       <c r="D3">
-        <v>0.04518012690787998</v>
+        <v>0.1431630002442716</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6.499322781234298</v>
+        <v>6.620439367004252</v>
       </c>
       <c r="G3">
-        <v>0.002687758981656166</v>
+        <v>0.0008641535985910061</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1758710626823152</v>
+        <v>0.1206829396779092</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2870734117642968</v>
+        <v>0.0838719582149281</v>
       </c>
       <c r="M3">
-        <v>0.5784692023009512</v>
+        <v>0.347715525819531</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.022285137614347</v>
+        <v>2.136372008766898</v>
       </c>
       <c r="C4">
-        <v>0.1360033035794288</v>
+        <v>0.3293003284715326</v>
       </c>
       <c r="D4">
-        <v>0.04121507731058216</v>
+        <v>0.1298856153233459</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6.394728955178095</v>
+        <v>6.222417254176747</v>
       </c>
       <c r="G4">
-        <v>0.002692143744943508</v>
+        <v>0.0008714089537207315</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1748879421335694</v>
+        <v>0.1180507331984835</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2885389116991703</v>
+        <v>0.08208508798193037</v>
       </c>
       <c r="M4">
-        <v>0.5769625683503392</v>
+        <v>0.3232954500027034</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.014118118620502</v>
+        <v>2.06292666315926</v>
       </c>
       <c r="C5">
-        <v>0.1327907786742628</v>
+        <v>0.3141607787582927</v>
       </c>
       <c r="D5">
-        <v>0.03959703916271451</v>
+        <v>0.1245351142457167</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>6.35246440323607</v>
+        <v>6.062550721038662</v>
       </c>
       <c r="G5">
-        <v>0.002693984865617241</v>
+        <v>0.0008744083221906199</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1744819989973792</v>
+        <v>0.1169889143635352</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2891761278176475</v>
+        <v>0.08140825303041765</v>
       </c>
       <c r="M5">
-        <v>0.5764606954166993</v>
+        <v>0.3135703486972901</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.01280032173571</v>
+        <v>2.050815319008336</v>
       </c>
       <c r="C6">
-        <v>0.1322600178050379</v>
+        <v>0.3116591351577256</v>
       </c>
       <c r="D6">
-        <v>0.03932822146019532</v>
+        <v>0.1236499786300271</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>6.345467859932768</v>
+        <v>6.03613617669626</v>
       </c>
       <c r="G6">
-        <v>0.002694293867378319</v>
+        <v>0.0008749090324242277</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.17441426862597</v>
+        <v>0.116813171269353</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.289284355565961</v>
+        <v>0.08129887766691013</v>
       </c>
       <c r="M6">
-        <v>0.5763841265610949</v>
+        <v>0.3119684718281803</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.022172423866948</v>
+        <v>2.135375747240516</v>
       </c>
       <c r="C7">
-        <v>0.1359597985546657</v>
+        <v>0.3290953062008839</v>
       </c>
       <c r="D7">
-        <v>0.04119326534375034</v>
+        <v>0.1298132277610904</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>6.394157518396725</v>
+        <v>6.220252239486854</v>
       </c>
       <c r="G7">
-        <v>0.002692168354804439</v>
+        <v>0.0008714492273118864</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1748824890883824</v>
+        <v>0.1180363730846246</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2885473433249359</v>
+        <v>0.0820757561204033</v>
       </c>
       <c r="M7">
-        <v>0.5769553462071713</v>
+        <v>0.3231634095763027</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.069110356165652</v>
+        <v>2.521980960556846</v>
       </c>
       <c r="C8">
-        <v>0.1526791573949993</v>
+        <v>0.4080782064956452</v>
       </c>
       <c r="D8">
-        <v>0.04940428548670184</v>
+        <v>0.1575694780501919</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.612176876263334</v>
+        <v>7.054109005511634</v>
       </c>
       <c r="G8">
-        <v>0.002683265042539548</v>
+        <v>0.0008565489516162059</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1769022613490883</v>
+        <v>0.1235372067946336</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2856461882040549</v>
+        <v>0.08596311148341584</v>
       </c>
       <c r="M8">
-        <v>0.5804604166775249</v>
+        <v>0.3746186808902507</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.18132002463949</v>
+        <v>3.342041454611035</v>
       </c>
       <c r="C9">
-        <v>0.1869197245910357</v>
+        <v>0.5731783214698964</v>
       </c>
       <c r="D9">
-        <v>0.06545664199016699</v>
+        <v>0.2148696441225582</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>7.051532763981726</v>
+        <v>8.791857632957203</v>
       </c>
       <c r="G9">
-        <v>0.00266750309284811</v>
+        <v>0.0008284221596543686</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1807030835888526</v>
+        <v>0.1349185498684022</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2812152419151346</v>
+        <v>0.09547315869011186</v>
       </c>
       <c r="M9">
-        <v>0.5908820392982435</v>
+        <v>0.4847889791047777</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.276177529124482</v>
+        <v>3.997745609587923</v>
       </c>
       <c r="C10">
-        <v>0.2130054979682257</v>
+        <v>0.7040114429429138</v>
       </c>
       <c r="D10">
-        <v>0.07723908065960927</v>
+        <v>0.2596910868697506</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>7.382002736411209</v>
+        <v>10.16008027182224</v>
       </c>
       <c r="G10">
-        <v>0.002656944475691425</v>
+        <v>0.000808168246763782</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1834045291089446</v>
+        <v>0.1438984515365327</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2787238704349093</v>
+        <v>0.1038803103411396</v>
       </c>
       <c r="M10">
-        <v>0.6007148955721036</v>
+        <v>0.5735258097263483</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.3220560884821</v>
+        <v>4.311816865489618</v>
       </c>
       <c r="C11">
-        <v>0.2250840118702513</v>
+        <v>0.7665126901070209</v>
       </c>
       <c r="D11">
-        <v>0.08260094170053378</v>
+        <v>0.2809368614982759</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>7.534113163509176</v>
+        <v>10.8102264297529</v>
       </c>
       <c r="G11">
-        <v>0.002652360127845445</v>
+        <v>0.0007989745551115248</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1846151373049203</v>
+        <v>0.1481882184065419</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.27775580827619</v>
+        <v>0.1080869169405929</v>
       </c>
       <c r="M11">
-        <v>0.6056637952670272</v>
+        <v>0.6161729652747141</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.339823477083087</v>
+        <v>4.433447123429175</v>
       </c>
       <c r="C12">
-        <v>0.229689058208379</v>
+        <v>0.7907029747315164</v>
       </c>
       <c r="D12">
-        <v>0.08463194244488648</v>
+        <v>0.2891319399038395</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>7.591977015302632</v>
+        <v>11.06119879012471</v>
       </c>
       <c r="G12">
-        <v>0.002650655404259258</v>
+        <v>0.0007954890726035028</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1850710451619726</v>
+        <v>0.1498493037686224</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2774129484969947</v>
+        <v>0.1097422745641836</v>
       </c>
       <c r="M12">
-        <v>0.6076064792610225</v>
+        <v>0.6327098092785803</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.335979388709859</v>
+        <v>4.407124204883075</v>
       </c>
       <c r="C13">
-        <v>0.2286958813206184</v>
+        <v>0.7854682537048348</v>
       </c>
       <c r="D13">
-        <v>0.08419449952288005</v>
+        <v>0.2873598467226799</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>7.579503188574677</v>
+        <v>11.00692093731288</v>
       </c>
       <c r="G13">
-        <v>0.002651021159080447</v>
+        <v>0.0007962400357865293</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1849729677490615</v>
+        <v>0.1494898002238187</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2774857349834363</v>
+        <v>0.1093828549434761</v>
       </c>
       <c r="M13">
-        <v>0.6071850310860896</v>
+        <v>0.6291300166932885</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.323509910796076</v>
+        <v>4.321766651927305</v>
       </c>
       <c r="C14">
-        <v>0.2254622429674384</v>
+        <v>0.7684917721771285</v>
       </c>
       <c r="D14">
-        <v>0.08276802001027761</v>
+        <v>0.281607904456564</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>7.538868345830565</v>
+        <v>10.83077334789522</v>
       </c>
       <c r="G14">
-        <v>0.002652219253445942</v>
+        <v>0.0007986879271189243</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1846526950692251</v>
+        <v>0.148324096407638</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.277727125757643</v>
+        <v>0.1082218059991007</v>
       </c>
       <c r="M14">
-        <v>0.6058222440848766</v>
+        <v>0.6175253207274523</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.315923388636634</v>
+        <v>4.269848108718463</v>
       </c>
       <c r="C15">
-        <v>0.2234856269469958</v>
+        <v>0.758164287965144</v>
       </c>
       <c r="D15">
-        <v>0.08189434456586753</v>
+        <v>0.2781050487082126</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>7.514012790595132</v>
+        <v>10.72352559060533</v>
       </c>
       <c r="G15">
-        <v>0.002652957186948066</v>
+        <v>0.0008001865808054608</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1844561934129842</v>
+        <v>0.147615077978152</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2778780729779484</v>
+        <v>0.1075190011691944</v>
       </c>
       <c r="M15">
-        <v>0.6049964435339774</v>
+        <v>0.6104694918704752</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.27323430683083</v>
+        <v>3.977572885542997</v>
       </c>
       <c r="C16">
-        <v>0.2122204629982889</v>
+        <v>0.6999944807502629</v>
       </c>
       <c r="D16">
-        <v>0.07688873539862584</v>
+        <v>0.258322028302814</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>7.372098358107451</v>
+        <v>10.11821409651074</v>
       </c>
       <c r="G16">
-        <v>0.002657248459812567</v>
+        <v>0.0008087689144157562</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1833250540666569</v>
+        <v>0.1436228111661251</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2787904576913647</v>
+        <v>0.1036136963926353</v>
       </c>
       <c r="M16">
-        <v>0.6004010671530153</v>
+        <v>0.5707894432339202</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.247745872293024</v>
+        <v>3.802596626611319</v>
       </c>
       <c r="C17">
-        <v>0.2053644285369387</v>
+        <v>0.6651347371184499</v>
       </c>
       <c r="D17">
-        <v>0.07381867133480569</v>
+        <v>0.2464226390941917</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>7.285498966591831</v>
+        <v>9.754498158978151</v>
       </c>
       <c r="G17">
-        <v>0.002659936921924625</v>
+        <v>0.0008140344532834961</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1826265275041088</v>
+        <v>0.1412308500877089</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2793924765086402</v>
+        <v>0.1013207032848982</v>
       </c>
       <c r="M17">
-        <v>0.5977039846553254</v>
+        <v>0.5470701181637168</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.23334219206248</v>
+        <v>3.703411328347954</v>
       </c>
       <c r="C18">
-        <v>0.2014409274522393</v>
+        <v>0.6453587735880717</v>
       </c>
       <c r="D18">
-        <v>0.07205301922145679</v>
+        <v>0.2396571824480986</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>7.235856197979899</v>
+        <v>9.54785458427753</v>
       </c>
       <c r="G18">
-        <v>0.002661503862130727</v>
+        <v>0.0008170654017371038</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1822230252090016</v>
+        <v>0.139873830188467</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2797543006760179</v>
+        <v>0.1000372887494336</v>
       </c>
       <c r="M18">
-        <v>0.5961974732283011</v>
+        <v>0.5336379135964222</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.228509364613672</v>
+        <v>3.670067194508249</v>
       </c>
       <c r="C19">
-        <v>0.2001158958059079</v>
+        <v>0.6387075381248053</v>
       </c>
       <c r="D19">
-        <v>0.0714552195328082</v>
+        <v>0.2373793035883125</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>7.219076457086516</v>
+        <v>9.478305784467295</v>
       </c>
       <c r="G19">
-        <v>0.002662037946559454</v>
+        <v>0.0008180922238216271</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1820861061770422</v>
+        <v>0.1394173924012136</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2798794816859598</v>
+        <v>0.0996086295095111</v>
       </c>
       <c r="M19">
-        <v>0.5956950789387392</v>
+        <v>0.5291245147271511</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.250432589190893</v>
+        <v>3.821069553820905</v>
       </c>
       <c r="C20">
-        <v>0.2060921996615832</v>
+        <v>0.6688165917084063</v>
       </c>
       <c r="D20">
-        <v>0.07414546541539835</v>
+        <v>0.2476810199978701</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>7.294700292751401</v>
+        <v>9.792946501704421</v>
       </c>
       <c r="G20">
-        <v>0.002659648598907465</v>
+        <v>0.0008134737307903878</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1827010649463716</v>
+        <v>0.1414834875330264</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2793267806058779</v>
+        <v>0.1015610770317465</v>
       </c>
       <c r="M20">
-        <v>0.5979864577325529</v>
+        <v>0.5495728953946823</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.32716178480149</v>
+        <v>4.346761203779636</v>
       </c>
       <c r="C21">
-        <v>0.2264111892304754</v>
+        <v>0.7734631669728458</v>
       </c>
       <c r="D21">
-        <v>0.08318699348946268</v>
+        <v>0.2832930887781941</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>7.550796589748813</v>
+        <v>10.88237557221157</v>
       </c>
       <c r="G21">
-        <v>0.002651866497157882</v>
+        <v>0.0007979690924655799</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.184746834537215</v>
+        <v>0.1486654332238579</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2776555798877425</v>
+        <v>0.1085610744333678</v>
       </c>
       <c r="M21">
-        <v>0.6062206629623574</v>
+        <v>0.6209228631484152</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.379607272065812</v>
+        <v>4.706317457182081</v>
       </c>
       <c r="C22">
-        <v>0.2398728708240867</v>
+        <v>0.8449576911628469</v>
       </c>
       <c r="D22">
-        <v>0.08909967752525461</v>
+        <v>0.3074566003879511</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>7.719706357023654</v>
+        <v>11.62269153710355</v>
       </c>
       <c r="G22">
-        <v>0.002646962615240382</v>
+        <v>0.0007878082827340271</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1860692066460885</v>
+        <v>0.1535772276349903</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2767016193552934</v>
+        <v>0.1135042206581716</v>
       </c>
       <c r="M22">
-        <v>0.6120024032412061</v>
+        <v>0.6698474939735135</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.351405139251767</v>
+        <v>4.512790005430475</v>
       </c>
       <c r="C23">
-        <v>0.2326712268520623</v>
+        <v>0.8064802481166282</v>
       </c>
       <c r="D23">
-        <v>0.0859435454909061</v>
+        <v>0.2944686368693823</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>7.629413059352885</v>
+        <v>11.22468228411122</v>
       </c>
       <c r="G23">
-        <v>0.002649563305372027</v>
+        <v>0.0007932364376397245</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1853647371279159</v>
+        <v>0.1509330142979159</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2771981280267966</v>
+        <v>0.1108294475440914</v>
       </c>
       <c r="M23">
-        <v>0.6088798872705397</v>
+        <v>0.6435030847404519</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.249217146059152</v>
+        <v>3.812713580102638</v>
       </c>
       <c r="C24">
-        <v>0.2057631179347652</v>
+        <v>0.6671512054783193</v>
       </c>
       <c r="D24">
-        <v>0.07399772380047409</v>
+        <v>0.2471118722665153</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>7.290539924045902</v>
+        <v>9.775556396382001</v>
       </c>
       <c r="G24">
-        <v>0.002659778883353676</v>
+        <v>0.0008137272212594845</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1826673725264243</v>
+        <v>0.1413692141327623</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2793564327699585</v>
+        <v>0.1014522960317379</v>
       </c>
       <c r="M24">
-        <v>0.5978586143793763</v>
+        <v>0.5484407576382822</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.148793019482696</v>
+        <v>3.112106933757332</v>
       </c>
       <c r="C25">
-        <v>0.1774967109637657</v>
+        <v>0.5271102491077784</v>
       </c>
       <c r="D25">
-        <v>0.06111740160096701</v>
+        <v>0.1989691383312504</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>6.93136175288555</v>
+        <v>8.308028281802166</v>
       </c>
       <c r="G25">
-        <v>0.002671586753848125</v>
+        <v>0.000835938422296016</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1796913160054956</v>
+        <v>0.1317519369210949</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2822795474686401</v>
+        <v>0.09267299261828299</v>
       </c>
       <c r="M25">
-        <v>0.5876815511680604</v>
+        <v>0.4537906784763166</v>
       </c>
       <c r="N25">
         <v>0</v>
